--- a/Grid_vulnerability/powersystem/V_critical_CPF.xlsx
+++ b/Grid_vulnerability/powersystem/V_critical_CPF.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Graduation thesis\Grid_vulnerability\powersystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Graduation thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="11064"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,15 +348,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.99101054349139883</v>
+        <v>0.9791904392254388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.93379985114652353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.82124311943585093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.69239699179398073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.6851708192065844</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.69433781269036532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.65954076145674567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.66336157531799733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.91326425657975685</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.75599789323582711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.72959862875382475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.67653819670051507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.7374582945189041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.71909661184628515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.75543442661550719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.8207021468906478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.82019247603754586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.81489007815156056</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.94706085183549593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.91256426169544014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.83444619725127511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.92415326141812448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.90894510430052622</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.83581953751685556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.96011958915238915</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.88037843128338633</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.83151286643445377</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.91159196298621226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.94270858736499974</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1.0499000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.98409999999999898</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.99719999999999964</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1.0123000000000011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1.0494000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1.0636000000000008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1.0275000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.0265000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1.0299999999999998</v>
       </c>
     </row>
   </sheetData>
